--- a/worklog/StatusReport_Steven.xlsx
+++ b/worklog/StatusReport_Steven.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Weekly Plan and Status</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Report Period</t>
   </si>
   <si>
-    <t>March, 1~5, 2021</t>
+    <t>March, 8~12, 2021</t>
   </si>
   <si>
     <t>Status Report</t>
@@ -58,55 +58,37 @@
     <t>Actual Finish Date</t>
   </si>
   <si>
-    <t>Test bench</t>
-  </si>
-  <si>
-    <t>Add multithreading feature to test bench</t>
+    <t>Test bench UI</t>
+  </si>
+  <si>
+    <t>Design the appearance of the UI</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Update protocol, predefined table</t>
-  </si>
-  <si>
-    <t>Test bench UI</t>
-  </si>
-  <si>
-    <t>Implement UI based on pyqt</t>
+    <t>Design the new UI with Qt Designer</t>
+  </si>
+  <si>
+    <t>Implement command functions of UI</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Protocol for setting up STM32 Programmer</t>
-  </si>
-  <si>
-    <t>Fix plotting issue</t>
-  </si>
-  <si>
-    <t>Add reading Bryan’s test case feature</t>
+    <t>Program crashed unexpectedly</t>
+  </si>
+  <si>
+    <t>Implement plotting feature of UI</t>
   </si>
   <si>
     <t>Plan for next week</t>
   </si>
   <si>
-    <t>Design the appearance of the UI</t>
-  </si>
-  <si>
-    <t>May redesign a new interface.</t>
-  </si>
-  <si>
-    <t>Implement command functions of UI</t>
-  </si>
-  <si>
-    <t>Not Started</t>
-  </si>
-  <si>
-    <t>Apply Template to programmer documents</t>
+    <t>Continue working on the UI command</t>
+  </si>
+  <si>
+    <t>Plan to finish the program this week</t>
   </si>
 </sst>
 </file>
@@ -193,7 +175,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -407,7 +389,7 @@
       <top style="thin">
         <color indexed="14"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="14"/>
       </bottom>
       <diagonal/>
@@ -422,6 +404,21 @@
       <top style="thin">
         <color indexed="14"/>
       </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
       <bottom style="medium">
         <color indexed="14"/>
       </bottom>
@@ -443,8 +440,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -461,55 +458,10 @@
       <left style="thin">
         <color indexed="14"/>
       </left>
-      <right style="thin">
-        <color indexed="14"/>
+      <right style="medium">
+        <color indexed="8"/>
       </right>
       <top style="medium">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
         <color indexed="14"/>
       </top>
       <bottom style="thin">
@@ -650,7 +602,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -730,144 +682,120 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2047,488 +1975,452 @@
       <c r="D5" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="24">
+      <c r="E5" t="s" s="26">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="25">
+      <c r="F5" t="s" s="27">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="25">
+      <c r="G5" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="25">
+      <c r="H5" t="s" s="27">
         <v>13</v>
       </c>
-      <c r="I5" t="s" s="26">
+      <c r="I5" t="s" s="28">
         <v>14</v>
       </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="28">
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" ht="17.5" customHeight="1">
+      <c r="A6" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="30">
+      <c r="C6" t="s" s="32">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="31">
+      <c r="D6" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="E6" t="s" s="34">
+        <v>18</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" t="s" s="35">
+      <c r="A7" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="31">
         <v>2</v>
       </c>
-      <c r="C7" t="s" s="37">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s" s="38">
-        <v>17</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
+      <c r="C7" t="s" s="32">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="15.6" customHeight="1">
-      <c r="A8" t="s" s="42">
-        <v>19</v>
-      </c>
-      <c r="B8" s="43">
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" t="s" s="30">
+        <v>15</v>
+      </c>
+      <c r="B8" s="31">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="37">
+      <c r="C8" t="s" s="32">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s" s="33">
         <v>20</v>
       </c>
-      <c r="D8" t="s" s="38">
-        <v>21</v>
-      </c>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" ht="31" customHeight="1">
-      <c r="A9" t="s" s="35">
-        <v>22</v>
-      </c>
-      <c r="B9" s="36">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s" s="37">
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" ht="15.6" customHeight="1">
+      <c r="A10" s="45"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" ht="15.6" customHeight="1">
+      <c r="A11" s="45"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" ht="15.6" customHeight="1">
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" ht="15.6" customHeight="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" ht="15.6" customHeight="1">
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="6"/>
+    </row>
+    <row r="15" ht="15.6" customHeight="1">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" ht="15.6" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" ht="15.6" customHeight="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" ht="20.4" customHeight="1">
+      <c r="A18" t="s" s="49">
         <v>23</v>
       </c>
-      <c r="D9" t="s" s="38">
-        <v>17</v>
-      </c>
-      <c r="E9" s="39"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" t="s" s="42">
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" ht="31.2" customHeight="1">
+      <c r="A19" t="s" s="22">
+        <v>6</v>
+      </c>
+      <c r="B19" t="s" s="23">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s" s="24">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s" s="25">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s" s="27">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s" s="27">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s" s="27">
+        <v>13</v>
+      </c>
+      <c r="I19" t="s" s="28">
+        <v>14</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" ht="15.6" customHeight="1">
+      <c r="A20" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="B10" s="43">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s" s="47">
+      <c r="B20" s="31">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="32">
         <v>24</v>
       </c>
-      <c r="D10" t="s" s="38">
-        <v>17</v>
-      </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" t="s" s="42">
-        <v>15</v>
-      </c>
-      <c r="B11" s="36">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s" s="37">
+      <c r="D20" t="s" s="33">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s" s="34">
         <v>25</v>
       </c>
-      <c r="D11" t="s" s="38">
-        <v>17</v>
-      </c>
-      <c r="E11" s="39"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="48"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="48"/>
-      <c r="B14" s="49"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="50"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" ht="20.4" customHeight="1">
-      <c r="A18" t="s" s="53">
-        <v>26</v>
-      </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" ht="31.2" customHeight="1">
-      <c r="A19" t="s" s="56">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s" s="57">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s" s="58">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s" s="59">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s" s="24">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s" s="25">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s" s="25">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s" s="25">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s" s="26">
-        <v>14</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" t="s" s="42">
-        <v>19</v>
-      </c>
-      <c r="B20" s="43">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="37">
-        <v>27</v>
-      </c>
-      <c r="D20" t="s" s="38">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s" s="30">
-        <v>28</v>
-      </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="36"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" t="s" s="42">
-        <v>19</v>
-      </c>
-      <c r="B21" s="43">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s" s="37">
-        <v>29</v>
-      </c>
-      <c r="D21" t="s" s="38">
-        <v>30</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="41"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" ht="31" customHeight="1">
-      <c r="A22" t="s" s="35">
-        <v>22</v>
-      </c>
-      <c r="B22" s="43">
-        <v>3</v>
-      </c>
-      <c r="C22" t="s" s="37">
-        <v>31</v>
-      </c>
-      <c r="D22" t="s" s="38">
-        <v>30</v>
-      </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+    <row r="22" ht="17" customHeight="1">
+      <c r="A22" s="42"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="41"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="48"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="47"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="48"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="47"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="41"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="38"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="47"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="41"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="48"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="38"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="48"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="47"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="39"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="41"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="48"/>
-      <c r="B32" s="49"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="47"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="41"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="38"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="48"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="47"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="60"/>
-      <c r="B35" s="61"/>
-      <c r="C35" s="62"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="65"/>
-      <c r="G35" s="65"/>
-      <c r="H35" s="65"/>
-      <c r="I35" s="66"/>
+      <c r="A35" s="52"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="58"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="67"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="72"/>
+      <c r="A36" s="59"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
+      <c r="F36" s="63"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="63"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2539,7 +2431,7 @@
     <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D11 D14:D17 D20:D22 D25:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D14:D17 D20 D26:D35">
       <formula1>"Not Started,In Progress,Completed,Delayed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/worklog/StatusReport_Steven.xlsx
+++ b/worklog/StatusReport_Steven.xlsx
@@ -85,7 +85,7 @@
     <t>Plan for next week</t>
   </si>
   <si>
-    <t>Continue working on the UI command</t>
+    <t>Continue working on the UI</t>
   </si>
   <si>
     <t>Plan to finish the program this week</t>

--- a/worklog/StatusReport_Steven.xlsx
+++ b/worklog/StatusReport_Steven.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Weekly Plan and Status</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Report Period</t>
   </si>
   <si>
-    <t>March, 8~12, 2021</t>
+    <t>March, 15~19, 2021</t>
   </si>
   <si>
     <t>Status Report</t>
@@ -61,34 +61,31 @@
     <t>Test bench UI</t>
   </si>
   <si>
-    <t>Design the appearance of the UI</t>
+    <t>Implement command functions of UI</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Design the new UI with Qt Designer</t>
+    <t>Implement plotting feature of UI</t>
   </si>
   <si>
-    <t>Implement command functions of UI</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>Program crashed unexpectedly</t>
-  </si>
-  <si>
-    <t>Implement plotting feature of UI</t>
+    <t>Add Custom Test Case command to UI</t>
   </si>
   <si>
     <t>Plan for next week</t>
   </si>
   <si>
-    <t>Continue working on the UI</t>
+    <t xml:space="preserve">Add snapping cursor feature </t>
   </si>
   <si>
-    <t>Plan to finish the program this week</t>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Work on the Dwin screen with Nguyen</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -175,7 +172,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -485,6 +482,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -602,7 +629,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -682,9 +709,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -705,24 +729,33 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="59" fontId="5" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -734,9 +767,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -750,52 +780,58 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1975,61 +2011,57 @@
       <c r="D5" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="26">
+      <c r="E5" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="27">
+      <c r="F5" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="27">
+      <c r="G5" t="s" s="26">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="27">
+      <c r="H5" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="I5" t="s" s="28">
+      <c r="I5" t="s" s="27">
         <v>14</v>
       </c>
-      <c r="J5" s="29"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" ht="17.5" customHeight="1">
-      <c r="A6" t="s" s="30">
+      <c r="A6" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="32">
+      <c r="C6" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="33">
+      <c r="D6" t="s" s="32">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="34">
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="6"/>
+    </row>
+    <row r="7" ht="15.6" customHeight="1">
+      <c r="A7" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="B7" s="30">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="31">
         <v>18</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" ht="15.6" customHeight="1">
-      <c r="A7" t="s" s="30">
-        <v>15</v>
-      </c>
-      <c r="B7" s="31">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s" s="32">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s" s="32">
-        <v>21</v>
-      </c>
+      <c r="D7" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="E7" s="36"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="37"/>
@@ -2037,31 +2069,31 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" ht="17" customHeight="1">
-      <c r="A8" t="s" s="30">
+      <c r="A8" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="39">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="32">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+      <c r="C8" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="42"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="44"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
@@ -2069,23 +2101,23 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="44"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
@@ -2093,23 +2125,23 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="44"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="33"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
@@ -2117,23 +2149,23 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="42"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="44"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="33"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
@@ -2141,23 +2173,23 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="44"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="33"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
@@ -2165,17 +2197,17 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" ht="20.4" customHeight="1">
-      <c r="A18" t="s" s="49">
-        <v>23</v>
-      </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="51"/>
+      <c r="A18" t="s" s="50">
+        <v>20</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="52"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" ht="31.2" customHeight="1">
@@ -2191,51 +2223,57 @@
       <c r="D19" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="26">
+      <c r="E19" t="s" s="53">
         <v>10</v>
       </c>
-      <c r="F19" t="s" s="27">
+      <c r="F19" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="G19" t="s" s="27">
+      <c r="G19" t="s" s="26">
         <v>12</v>
       </c>
-      <c r="H19" t="s" s="27">
+      <c r="H19" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="I19" t="s" s="28">
+      <c r="I19" t="s" s="27">
         <v>14</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" ht="15.6" customHeight="1">
-      <c r="A20" t="s" s="30">
+      <c r="A20" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="30">
         <v>1</v>
       </c>
-      <c r="C20" t="s" s="32">
+      <c r="C20" t="s" s="31">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s" s="32">
+        <v>22</v>
+      </c>
+      <c r="E20" s="54"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" ht="17" customHeight="1">
+      <c r="A21" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="B21" s="30">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s" s="31">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s" s="32">
         <v>24</v>
       </c>
-      <c r="D20" t="s" s="33">
-        <v>20</v>
-      </c>
-      <c r="E20" t="s" s="34">
-        <v>25</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" ht="17" customHeight="1">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="44"/>
+      <c r="E21" s="33"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -2243,23 +2281,23 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="42"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="42"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="44"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
       <c r="H23" s="37"/>
@@ -2267,23 +2305,23 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
+      <c r="A24" s="46"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="42"/>
-      <c r="B25" s="43"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="44"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="33"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
       <c r="H25" s="37"/>
@@ -2291,23 +2329,23 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
+      <c r="A26" s="46"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="42"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="44"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
       <c r="H27" s="37"/>
@@ -2315,23 +2353,23 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
+      <c r="A28" s="46"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="42"/>
-      <c r="B29" s="43"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="44"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
       <c r="H29" s="37"/>
@@ -2339,23 +2377,23 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
+      <c r="A30" s="46"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="42"/>
-      <c r="B31" s="43"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="44"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="33"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
       <c r="H31" s="37"/>
@@ -2363,23 +2401,23 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="A32" s="46"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="44"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="33"/>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
       <c r="H33" s="37"/>
@@ -2387,40 +2425,40 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="A34" s="46"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="58"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="59"/>
-      <c r="B36" s="59"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="64"/>
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2431,7 +2469,7 @@
     <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D14:D17 D20 D26:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D14:D17 D20:D21 D26:D35">
       <formula1>"Not Started,In Progress,Completed,Delayed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/worklog/StatusReport_Steven.xlsx
+++ b/worklog/StatusReport_Steven.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
   <si>
     <t>Weekly Plan and Status</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Report Period</t>
   </si>
   <si>
-    <t>March, 15~19, 2021</t>
+    <t>March, 22~26, 2021</t>
   </si>
   <si>
     <t>Status Report</t>
@@ -61,31 +61,46 @@
     <t>Test bench UI</t>
   </si>
   <si>
-    <t>Implement command functions of UI</t>
+    <t xml:space="preserve">Add snapping cursor feature </t>
+  </si>
+  <si>
+    <t>Delayed</t>
+  </si>
+  <si>
+    <t>Dwin Screen</t>
+  </si>
+  <si>
+    <t>Fix black screen problem</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Implement plotting feature of UI</t>
-  </si>
-  <si>
-    <t>Add Custom Test Case command to UI</t>
+    <t>Translate Serial communication command example and Dwin communication protocol to English</t>
+  </si>
+  <si>
+    <t>Verify Dwin screen ui and the communication protocol</t>
+  </si>
+  <si>
+    <t>Improve performance of the ui</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Multiprocess and threading do not work as expected, will try different approach</t>
   </si>
   <si>
     <t>Plan for next week</t>
   </si>
   <si>
-    <t xml:space="preserve">Add snapping cursor feature </t>
-  </si>
-  <si>
-    <t>Delayed</t>
-  </si>
-  <si>
-    <t>Work on the Dwin screen with Nguyen</t>
-  </si>
-  <si>
-    <t>In Progress</t>
+    <t>Try to use subprocess for the improvement</t>
+  </si>
+  <si>
+    <t>Not Started</t>
+  </si>
+  <si>
+    <t>Work with Dwin Eng to solve the screen configuration</t>
   </si>
 </sst>
 </file>
@@ -172,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -482,36 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="8"/>
       </left>
@@ -747,12 +732,6 @@
     <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
@@ -762,31 +741,37 @@
     <xf numFmtId="59" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -795,43 +780,43 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2050,16 +2035,16 @@
     </row>
     <row r="7" ht="15.6" customHeight="1">
       <c r="A7" t="s" s="29">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B7" s="30">
         <v>2</v>
       </c>
       <c r="C7" t="s" s="31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s" s="32">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="37"/>
@@ -2068,31 +2053,39 @@
       <c r="I7" s="38"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
+    <row r="8" ht="45" customHeight="1">
       <c r="A8" t="s" s="29">
-        <v>15</v>
-      </c>
-      <c r="B8" s="39">
+        <v>18</v>
+      </c>
+      <c r="B8" s="30">
         <v>3</v>
       </c>
-      <c r="C8" t="s" s="40">
-        <v>19</v>
+      <c r="C8" t="s" s="31">
+        <v>21</v>
       </c>
       <c r="D8" t="s" s="32">
-        <v>17</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+        <v>20</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
+    <row r="9" ht="31" customHeight="1">
+      <c r="A9" t="s" s="42">
+        <v>18</v>
+      </c>
+      <c r="B9" s="43">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s" s="31">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s" s="32">
+        <v>20</v>
+      </c>
       <c r="E9" s="33"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -2100,21 +2093,31 @@
       <c r="I9" s="38"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+    <row r="10" ht="37.2" customHeight="1">
+      <c r="A10" t="s" s="29">
+        <v>15</v>
+      </c>
+      <c r="B10" s="30">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s" s="44">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s" s="32">
+        <v>24</v>
+      </c>
+      <c r="E10" t="s" s="44">
+        <v>25</v>
+      </c>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="46"/>
-      <c r="B11" s="45"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
@@ -2125,20 +2128,20 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="47"/>
-      <c r="C12" s="48"/>
+      <c r="C12" s="44"/>
       <c r="D12" s="47"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="41"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="31"/>
       <c r="D13" s="49"/>
       <c r="E13" s="33"/>
@@ -2149,20 +2152,20 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="46"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="47"/>
-      <c r="C14" s="48"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="47"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="31"/>
       <c r="D15" s="49"/>
       <c r="E15" s="33"/>
@@ -2173,20 +2176,20 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="46"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="47"/>
-      <c r="C16" s="48"/>
+      <c r="C16" s="44"/>
       <c r="D16" s="47"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="41"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="31"/>
       <c r="D17" s="49"/>
       <c r="E17" s="33"/>
@@ -2198,7 +2201,7 @@
     </row>
     <row r="18" ht="20.4" customHeight="1">
       <c r="A18" t="s" s="50">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18" s="51"/>
       <c r="C18" s="51"/>
@@ -2240,7 +2243,7 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="15.6" customHeight="1">
+    <row r="20" ht="31.5" customHeight="1">
       <c r="A20" t="s" s="29">
         <v>15</v>
       </c>
@@ -2248,10 +2251,10 @@
         <v>1</v>
       </c>
       <c r="C20" t="s" s="31">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s" s="32">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E20" s="54"/>
       <c r="F20" s="34"/>
@@ -2260,15 +2263,15 @@
       <c r="I20" s="35"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" ht="17" customHeight="1">
+    <row r="21" ht="31" customHeight="1">
       <c r="A21" t="s" s="29">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B21" s="30">
         <v>2</v>
       </c>
       <c r="C21" t="s" s="31">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s" s="32">
         <v>24</v>
@@ -2281,20 +2284,20 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="47"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="31"/>
       <c r="D23" s="49"/>
       <c r="E23" s="33"/>
@@ -2305,20 +2308,20 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="46"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="47"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="31"/>
       <c r="D25" s="49"/>
       <c r="E25" s="33"/>
@@ -2329,20 +2332,20 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="46"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="47"/>
-      <c r="C26" s="48"/>
+      <c r="C26" s="44"/>
       <c r="D26" s="47"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="31"/>
       <c r="D27" s="49"/>
       <c r="E27" s="33"/>
@@ -2353,20 +2356,20 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="46"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
+      <c r="C28" s="44"/>
       <c r="D28" s="47"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="31"/>
       <c r="D29" s="49"/>
       <c r="E29" s="33"/>
@@ -2377,20 +2380,20 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="47"/>
-      <c r="C30" s="48"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="47"/>
       <c r="E30" s="36"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="31"/>
       <c r="D31" s="49"/>
       <c r="E31" s="33"/>
@@ -2401,20 +2404,20 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="46"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="47"/>
       <c r="E32" s="36"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
+      <c r="A33" s="48"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="31"/>
       <c r="D33" s="49"/>
       <c r="E33" s="33"/>
@@ -2425,15 +2428,15 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="46"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="47"/>
-      <c r="C34" s="48"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="47"/>
       <c r="E34" s="36"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="41"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
@@ -2469,7 +2472,7 @@
     <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8 D14:D17 D20:D21 D26:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D10 D14:D17 D20:D21 D26:D35">
       <formula1>"Not Started,In Progress,Completed,Delayed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/worklog/StatusReport_Steven.xlsx
+++ b/worklog/StatusReport_Steven.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Weekly Plan and Status</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Report Period</t>
   </si>
   <si>
-    <t>March, 22~26, 2021</t>
+    <t>March, 29~ April 2, 2021</t>
   </si>
   <si>
     <t>Status Report</t>
@@ -61,46 +61,41 @@
     <t>Test bench UI</t>
   </si>
   <si>
-    <t xml:space="preserve">Add snapping cursor feature </t>
-  </si>
-  <si>
-    <t>Delayed</t>
+    <t>Use multiprocessing to improve the performance</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
   <si>
     <t>Dwin Screen</t>
   </si>
   <si>
-    <t>Fix black screen problem</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Translate Serial communication command example and Dwin communication protocol to English</t>
-  </si>
-  <si>
-    <t>Verify Dwin screen ui and the communication protocol</t>
-  </si>
-  <si>
-    <t>Improve performance of the ui</t>
+    <t>Work with Dwin Eng to solve the touch screen problem</t>
+  </si>
+  <si>
+    <t>Plan for next week</t>
+  </si>
+  <si>
+    <t>Test bench UI (Test Case)</t>
+  </si>
+  <si>
+    <t>Add more feature to the test case command</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>Multiprocess and threading do not work as expected, will try different approach</t>
-  </si>
-  <si>
-    <t>Plan for next week</t>
-  </si>
-  <si>
-    <t>Try to use subprocess for the improvement</t>
+    <t>1. For repeat set, continuously plot after a test case set is finished.
+2. Keep the plot after it is done.
+3. Show the status of the plot.
+4. Show command received time.
+5. Change x range to be number of test case.</t>
+  </si>
+  <si>
+    <t>Add feature to the screen interface</t>
   </si>
   <si>
     <t>Not Started</t>
-  </si>
-  <si>
-    <t>Work with Dwin Eng to solve the screen configuration</t>
   </si>
 </sst>
 </file>
@@ -614,7 +609,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -732,6 +727,12 @@
     <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
@@ -741,27 +742,15 @@
     <xf numFmtId="59" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -773,12 +762,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
@@ -1910,7 +1893,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="15.4141" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.5469" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.8516" style="1" customWidth="1"/>
@@ -2013,7 +1996,7 @@
       </c>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" ht="17.5" customHeight="1">
+    <row r="6" ht="31.5" customHeight="1">
       <c r="A6" t="s" s="29">
         <v>15</v>
       </c>
@@ -2033,7 +2016,7 @@
       <c r="I6" s="35"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" ht="15.6" customHeight="1">
+    <row r="7" ht="31" customHeight="1">
       <c r="A7" t="s" s="29">
         <v>18</v>
       </c>
@@ -2044,7 +2027,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s" s="32">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E7" s="36"/>
       <c r="F7" s="37"/>
@@ -2053,39 +2036,23 @@
       <c r="I7" s="38"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="45" customHeight="1">
-      <c r="A8" t="s" s="29">
-        <v>18</v>
-      </c>
-      <c r="B8" s="30">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="31">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="32">
-        <v>20</v>
-      </c>
-      <c r="E8" s="39"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" ht="31" customHeight="1">
-      <c r="A9" t="s" s="42">
-        <v>18</v>
-      </c>
-      <c r="B9" s="43">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s" s="31">
-        <v>22</v>
-      </c>
-      <c r="D9" t="s" s="32">
-        <v>20</v>
-      </c>
+    <row r="9" ht="17" customHeight="1">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="33"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -2094,30 +2061,20 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" ht="37.2" customHeight="1">
-      <c r="A10" t="s" s="29">
-        <v>15</v>
-      </c>
-      <c r="B10" s="30">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s" s="44">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s" s="32">
-        <v>24</v>
-      </c>
-      <c r="E10" t="s" s="44">
-        <v>25</v>
-      </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="33"/>
@@ -2128,22 +2085,22 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="45"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="47"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="36"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="48"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="31"/>
-      <c r="D13" s="49"/>
+      <c r="D13" s="47"/>
       <c r="E13" s="33"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -2152,22 +2109,22 @@
       <c r="J13" s="6"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="47"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="36"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="40"/>
-      <c r="I14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="31"/>
-      <c r="D15" s="49"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="33"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -2176,22 +2133,22 @@
       <c r="J15" s="6"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="47"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="36"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="48"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="49"/>
+      <c r="D17" s="47"/>
       <c r="E17" s="33"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -2200,17 +2157,17 @@
       <c r="J17" s="6"/>
     </row>
     <row r="18" ht="20.4" customHeight="1">
-      <c r="A18" t="s" s="50">
-        <v>26</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="51"/>
-      <c r="I18" s="52"/>
+      <c r="A18" t="s" s="48">
+        <v>20</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
       <c r="J18" s="6"/>
     </row>
     <row r="19" ht="31.2" customHeight="1">
@@ -2226,7 +2183,7 @@
       <c r="D19" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="E19" t="s" s="53">
+      <c r="E19" t="s" s="24">
         <v>10</v>
       </c>
       <c r="F19" t="s" s="26">
@@ -2243,27 +2200,29 @@
       </c>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="31.5" customHeight="1">
+    <row r="20" ht="101.5" customHeight="1">
       <c r="A20" t="s" s="29">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B20" s="30">
         <v>1</v>
       </c>
       <c r="C20" t="s" s="31">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s" s="32">
-        <v>28</v>
-      </c>
-      <c r="E20" s="54"/>
+        <v>23</v>
+      </c>
+      <c r="E20" t="s" s="31">
+        <v>24</v>
+      </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
       <c r="H20" s="34"/>
       <c r="I20" s="35"/>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" ht="31" customHeight="1">
+    <row r="21" ht="17" customHeight="1">
       <c r="A21" t="s" s="29">
         <v>18</v>
       </c>
@@ -2271,12 +2230,12 @@
         <v>2</v>
       </c>
       <c r="C21" t="s" s="31">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s" s="32">
-        <v>24</v>
-      </c>
-      <c r="E21" s="33"/>
+        <v>26</v>
+      </c>
+      <c r="E21" s="36"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
       <c r="H21" s="37"/>
@@ -2284,22 +2243,22 @@
       <c r="J21" s="6"/>
     </row>
     <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="36"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="48"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="45"/>
       <c r="C23" s="31"/>
-      <c r="D23" s="49"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="33"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -2308,22 +2267,22 @@
       <c r="J23" s="6"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="47"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="36"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="48"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
       <c r="C25" s="31"/>
-      <c r="D25" s="49"/>
+      <c r="D25" s="47"/>
       <c r="E25" s="33"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -2332,22 +2291,22 @@
       <c r="J25" s="6"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="45"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="47"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="36"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="48"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="45"/>
       <c r="C27" s="31"/>
-      <c r="D27" s="49"/>
+      <c r="D27" s="47"/>
       <c r="E27" s="33"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -2356,22 +2315,22 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="47"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="40"/>
       <c r="E28" s="36"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="48"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="31"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="47"/>
       <c r="E29" s="33"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -2380,22 +2339,22 @@
       <c r="J29" s="6"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="45"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="47"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="40"/>
       <c r="E30" s="36"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="48"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="45"/>
       <c r="C31" s="31"/>
-      <c r="D31" s="49"/>
+      <c r="D31" s="47"/>
       <c r="E31" s="33"/>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -2404,22 +2363,22 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="45"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="47"/>
+      <c r="A32" s="39"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="40"/>
       <c r="E32" s="36"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="48"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="45"/>
       <c r="C33" s="31"/>
-      <c r="D33" s="49"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="33"/>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -2428,40 +2387,40 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="45"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="47"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="40"/>
       <c r="E34" s="36"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="55"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="61"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="57"/>
       <c r="J35" s="6"/>
     </row>
     <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
-      <c r="J36" s="67"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2472,7 +2431,7 @@
     <mergeCell ref="A18:I18"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D10 D14:D17 D20:D21 D26:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D14:D17 D20:D21 D26:D35">
       <formula1>"Not Started,In Progress,Completed,Delayed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/worklog/StatusReport_Steven.xlsx
+++ b/worklog/StatusReport_Steven.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Weekly Plan and Status</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Report Period</t>
   </si>
   <si>
-    <t>March, 29~ April 2, 2021</t>
+    <t>April 12 ~ April 16, 2021</t>
   </si>
   <si>
     <t>Status Report</t>
@@ -58,44 +58,39 @@
     <t>Actual Finish Date</t>
   </si>
   <si>
-    <t>Test bench UI</t>
+    <t xml:space="preserve">Test bench UI </t>
   </si>
   <si>
-    <t>Use multiprocessing to improve the performance</t>
+    <t>Refactoring and adding new features</t>
   </si>
   <si>
     <t>Completed</t>
   </si>
   <si>
-    <t>Dwin Screen</t>
+    <t>Add feature to the test bench based on the new protocol. Add support to handle asynchronous message from the device.</t>
   </si>
   <si>
-    <t>Work with Dwin Eng to solve the touch screen problem</t>
+    <t>Add stability test case for DWIN screen</t>
   </si>
   <si>
-    <t>Plan for next week</t>
+    <t>Auto_Gen</t>
   </si>
   <si>
-    <t>Test bench UI (Test Case)</t>
-  </si>
-  <si>
-    <t>Add more feature to the test case command</t>
+    <t>C code generator</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>1. For repeat set, continuously plot after a test case set is finished.
-2. Keep the plot after it is done.
-3. Show the status of the plot.
-4. Show command received time.
-5. Change x range to be number of test case.</t>
+    <t>dgus_widget.h, completed
+strings.h, completed
+strings.cpp, in progress</t>
   </si>
   <si>
-    <t>Add feature to the screen interface</t>
+    <t>V0.1.4 Release</t>
   </si>
   <si>
-    <t>Not Started</t>
+    <t>Plan for next week</t>
   </si>
 </sst>
 </file>
@@ -182,7 +177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -457,7 +452,7 @@
         <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,6 +460,21 @@
       <left style="thin">
         <color indexed="14"/>
       </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="medium">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
@@ -478,6 +488,66 @@
     </border>
     <border>
       <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="14"/>
       </left>
       <right style="medium">
@@ -485,6 +555,36 @@
       </right>
       <top style="thin">
         <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -539,6 +639,36 @@
         <color indexed="14"/>
       </top>
       <bottom style="medium">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="medium">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
       <diagonal/>
@@ -609,7 +739,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -689,6 +819,9 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -709,97 +842,127 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1887,7 +2050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1979,448 +2142,456 @@
       <c r="D5" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="24">
+      <c r="E5" t="s" s="26">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="26">
+      <c r="F5" t="s" s="27">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="26">
+      <c r="G5" t="s" s="27">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="26">
+      <c r="H5" t="s" s="27">
         <v>13</v>
       </c>
-      <c r="I5" t="s" s="27">
+      <c r="I5" t="s" s="28">
         <v>14</v>
       </c>
-      <c r="J5" s="28"/>
-    </row>
-    <row r="6" ht="31.5" customHeight="1">
-      <c r="A6" t="s" s="29">
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" ht="42.5" customHeight="1">
+      <c r="A6" t="s" s="30">
         <v>15</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="31">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="31">
+      <c r="C6" t="s" s="32">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="32">
+      <c r="D6" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="35"/>
+      <c r="E6" t="s" s="34">
+        <v>18</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="36"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" ht="31" customHeight="1">
-      <c r="A7" t="s" s="29">
-        <v>18</v>
-      </c>
-      <c r="B7" s="30">
+    <row r="7" ht="17" customHeight="1">
+      <c r="A7" t="s" s="37">
+        <v>15</v>
+      </c>
+      <c r="B7" s="38">
         <v>2</v>
       </c>
-      <c r="C7" t="s" s="31">
+      <c r="C7" t="s" s="39">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="32">
+      <c r="D7" t="s" s="33">
         <v>17</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="42"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" ht="17" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43"/>
+    <row r="8" ht="45" customHeight="1">
+      <c r="A8" t="s" s="43">
+        <v>20</v>
+      </c>
+      <c r="B8" s="44">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s" s="33">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s" s="32">
+        <v>23</v>
+      </c>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="46"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" ht="17" customHeight="1">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
+    <row r="9" ht="37.2" customHeight="1">
+      <c r="A9" t="s" s="47">
+        <v>15</v>
+      </c>
+      <c r="B9" s="31">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s" s="48">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s" s="33">
+        <v>22</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="42"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" ht="37.2" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
+    <row r="10" ht="15.6" customHeight="1">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="46"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="42"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="43"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="46"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="46"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="46"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" ht="15.6" customHeight="1">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
+    <row r="17" ht="20.4" customHeight="1">
+      <c r="A17" t="s" s="56">
+        <v>25</v>
+      </c>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="6"/>
     </row>
-    <row r="18" ht="20.4" customHeight="1">
-      <c r="A18" t="s" s="48">
+    <row r="18" ht="31.2" customHeight="1">
+      <c r="A18" t="s" s="59">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s" s="23">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s" s="24">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s" s="25">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s" s="24">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s" s="27">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s" s="27">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s" s="27">
+        <v>13</v>
+      </c>
+      <c r="I18" t="s" s="28">
+        <v>14</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" ht="45.5" customHeight="1">
+      <c r="A19" t="s" s="60">
         <v>20</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" ht="31.2" customHeight="1">
-      <c r="A19" t="s" s="22">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s" s="23">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s" s="24">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s" s="25">
-        <v>9</v>
-      </c>
-      <c r="E19" t="s" s="24">
-        <v>10</v>
-      </c>
-      <c r="F19" t="s" s="26">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s" s="26">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s" s="26">
-        <v>13</v>
-      </c>
-      <c r="I19" t="s" s="27">
-        <v>14</v>
-      </c>
+      <c r="B19" s="44">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="32">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s" s="33">
+        <v>22</v>
+      </c>
+      <c r="E19" t="s" s="32">
+        <v>23</v>
+      </c>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="36"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="101.5" customHeight="1">
-      <c r="A20" t="s" s="29">
-        <v>21</v>
-      </c>
-      <c r="B20" s="30">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="31">
+    <row r="20" ht="17" customHeight="1">
+      <c r="A20" t="s" s="47">
+        <v>15</v>
+      </c>
+      <c r="B20" s="31">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s" s="48">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s" s="33">
         <v>22</v>
       </c>
-      <c r="D20" t="s" s="32">
-        <v>23</v>
-      </c>
-      <c r="E20" t="s" s="31">
-        <v>24</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" ht="17" customHeight="1">
-      <c r="A21" t="s" s="29">
-        <v>18</v>
-      </c>
-      <c r="B21" s="30">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s" s="32">
-        <v>26</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
       <c r="J21" s="6"/>
     </row>
-    <row r="22" ht="17" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="43"/>
+    <row r="22" ht="15.6" customHeight="1">
+      <c r="A22" s="54"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="45"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="43"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="43"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="46"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="44"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="38"/>
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="42"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="46"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="44"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="38"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="42"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="43"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="46"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="44"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="38"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="42"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="36"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="43"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="46"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="38"/>
+      <c r="A33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="42"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="43"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="68"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" ht="15.6" customHeight="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="6"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" s="58"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="59"/>
-      <c r="D36" s="60"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
+    <row r="35" ht="16.5" customHeight="1">
+      <c r="A35" s="69"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="72"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="73"/>
+      <c r="J35" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2428,10 +2599,10 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A18:I18"/>
+    <mergeCell ref="A17:I17"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D7 D14:D17 D20:D21 D26:D35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9 D13:D16 D19:D20 D25:D34">
       <formula1>"Not Started,In Progress,Completed,Delayed"</formula1>
     </dataValidation>
   </dataValidations>

--- a/worklog/StatusReport_Steven.xlsx
+++ b/worklog/StatusReport_Steven.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Weekly Plan and Status</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Report Period</t>
   </si>
   <si>
-    <t>April 12 ~ April 16, 2021</t>
+    <t>April 19 ~ April 23, 2021</t>
   </si>
   <si>
     <t>Status Report</t>
@@ -58,39 +58,50 @@
     <t>Actual Finish Date</t>
   </si>
   <si>
+    <t>Auto_Gen</t>
+  </si>
+  <si>
+    <t>C code generator</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>dgus_widget.h,
+strings.h,
+Readme.md
+strings.cpp,</t>
+  </si>
+  <si>
     <t xml:space="preserve">Test bench UI </t>
   </si>
   <si>
-    <t>Refactoring and adding new features</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>Add feature to the test bench based on the new protocol. Add support to handle asynchronous message from the device.</t>
-  </si>
-  <si>
-    <t>Add stability test case for DWIN screen</t>
-  </si>
-  <si>
-    <t>Auto_Gen</t>
-  </si>
-  <si>
-    <t>C code generator</t>
+    <t>V0.1.4 Release</t>
+  </si>
+  <si>
+    <t>Added release notes</t>
+  </si>
+  <si>
+    <t>LCD test tool</t>
+  </si>
+  <si>
+    <t>Add feature</t>
+  </si>
+  <si>
+    <t>Specify external config
+Specify output directory</t>
+  </si>
+  <si>
+    <t>Plan for next week</t>
+  </si>
+  <si>
+    <t>Improve plot performance</t>
   </si>
   <si>
     <t>In Progress</t>
   </si>
   <si>
-    <t>dgus_widget.h, completed
-strings.h, completed
-strings.cpp, in progress</t>
-  </si>
-  <si>
-    <t>V0.1.4 Release</t>
-  </si>
-  <si>
-    <t>Plan for next week</t>
+    <t>Make modification based on new requirements</t>
   </si>
 </sst>
 </file>
@@ -391,7 +402,7 @@
       <top style="thin">
         <color indexed="14"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="14"/>
       </bottom>
       <diagonal/>
@@ -443,7 +454,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
@@ -491,10 +502,10 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -503,55 +514,70 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="14"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="14"/>
@@ -569,22 +595,52 @@
         <color indexed="14"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
       </top>
       <bottom style="thin">
         <color indexed="14"/>
@@ -639,94 +695,49 @@
         <color indexed="14"/>
       </top>
       <bottom style="medium">
-        <color indexed="14"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="14"/>
       </left>
       <right style="thin">
         <color indexed="14"/>
       </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="14"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
       <top style="medium">
-        <color indexed="14"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="medium">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="14"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
         <color indexed="11"/>
@@ -739,7 +750,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -819,9 +830,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -830,10 +838,10 @@
     <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -842,127 +850,133 @@
     <xf numFmtId="49" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="5" fillId="6" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="6" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="59" fontId="5" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="6" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="5" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="5" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="59" fontId="5" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="5" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2142,189 +2156,191 @@
       <c r="D5" t="s" s="25">
         <v>9</v>
       </c>
-      <c r="E5" t="s" s="26">
+      <c r="E5" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="F5" t="s" s="27">
+      <c r="F5" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="G5" t="s" s="27">
+      <c r="G5" t="s" s="26">
         <v>12</v>
       </c>
-      <c r="H5" t="s" s="27">
+      <c r="H5" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="I5" t="s" s="28">
+      <c r="I5" t="s" s="27">
         <v>14</v>
       </c>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" ht="42.5" customHeight="1">
-      <c r="A6" t="s" s="30">
+      <c r="J5" s="28"/>
+    </row>
+    <row r="6" ht="59.5" customHeight="1">
+      <c r="A6" t="s" s="29">
         <v>15</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="30">
         <v>1</v>
       </c>
-      <c r="C6" t="s" s="32">
+      <c r="C6" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="33">
+      <c r="D6" t="s" s="32">
         <v>17</v>
       </c>
-      <c r="E6" t="s" s="34">
+      <c r="E6" t="s" s="31">
         <v>18</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" ht="17" customHeight="1">
-      <c r="A7" t="s" s="37">
+      <c r="A7" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="B7" s="36">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s" s="37">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="38">
+        <v>21</v>
+      </c>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" ht="17" customHeight="1">
+      <c r="A8" t="s" s="35">
+        <v>19</v>
+      </c>
+      <c r="B8" s="36">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s" s="37">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s" s="32">
+        <v>17</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" ht="29" customHeight="1">
+      <c r="A9" t="s" s="44">
         <v>15</v>
       </c>
-      <c r="B7" s="38">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s" s="39">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="33">
+      <c r="B9" s="45">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s" s="46">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s" s="32">
         <v>17</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" ht="45" customHeight="1">
-      <c r="A8" t="s" s="43">
-        <v>20</v>
-      </c>
-      <c r="B8" s="44">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s" s="32">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s" s="33">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s" s="32">
-        <v>23</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" ht="37.2" customHeight="1">
-      <c r="A9" t="s" s="47">
-        <v>15</v>
-      </c>
-      <c r="B9" s="31">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s" s="48">
+      <c r="E9" t="s" s="47">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="33">
-        <v>22</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="42"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" ht="15.6" customHeight="1">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="46"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="49"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" ht="15.6" customHeight="1">
-      <c r="A11" s="50"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="42"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" ht="15.6" customHeight="1">
       <c r="A12" s="54"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="55"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="46"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" ht="15.6" customHeight="1">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="42"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="52"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
       <c r="J13" s="6"/>
     </row>
     <row r="14" ht="15.6" customHeight="1">
       <c r="A14" s="54"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="32"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="55"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="46"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="6"/>
     </row>
     <row r="15" ht="15.6" customHeight="1">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="42"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="40"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" ht="15.6" customHeight="1">
       <c r="A16" s="54"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="32"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="31"/>
       <c r="D16" s="55"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="46"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="6"/>
     </row>
     <row r="17" ht="20.4" customHeight="1">
@@ -2357,241 +2373,239 @@
       <c r="E18" t="s" s="24">
         <v>10</v>
       </c>
-      <c r="F18" t="s" s="27">
+      <c r="F18" t="s" s="26">
         <v>11</v>
       </c>
-      <c r="G18" t="s" s="27">
+      <c r="G18" t="s" s="26">
         <v>12</v>
       </c>
-      <c r="H18" t="s" s="27">
+      <c r="H18" t="s" s="26">
         <v>13</v>
       </c>
-      <c r="I18" t="s" s="28">
+      <c r="I18" t="s" s="27">
         <v>14</v>
       </c>
       <c r="J18" s="6"/>
     </row>
-    <row r="19" ht="45.5" customHeight="1">
+    <row r="19" ht="17.5" customHeight="1">
       <c r="A19" t="s" s="60">
-        <v>20</v>
-      </c>
-      <c r="B19" s="44">
+        <v>19</v>
+      </c>
+      <c r="B19" s="30">
         <v>1</v>
       </c>
-      <c r="C19" t="s" s="32">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s" s="33">
-        <v>22</v>
-      </c>
-      <c r="E19" t="s" s="32">
-        <v>23</v>
-      </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
+      <c r="C19" t="s" s="31">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="E19" s="50"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="6"/>
     </row>
-    <row r="20" ht="17" customHeight="1">
-      <c r="A20" t="s" s="47">
+    <row r="20" ht="31" customHeight="1">
+      <c r="A20" t="s" s="61">
         <v>15</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="36">
         <v>2</v>
       </c>
-      <c r="C20" t="s" s="48">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s" s="33">
-        <v>22</v>
-      </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="46"/>
+      <c r="C20" t="s" s="37">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s" s="32">
+        <v>27</v>
+      </c>
+      <c r="E20" s="62"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="6"/>
     </row>
     <row r="21" ht="17" customHeight="1">
       <c r="A21" s="54"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="6"/>
     </row>
     <row r="22" ht="15.6" customHeight="1">
-      <c r="A22" s="54"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="32"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="31"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="46"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="43"/>
       <c r="J22" s="6"/>
     </row>
     <row r="23" ht="15.6" customHeight="1">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="42"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="40"/>
       <c r="J23" s="6"/>
     </row>
     <row r="24" ht="15.6" customHeight="1">
       <c r="A24" s="54"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="32"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="31"/>
       <c r="D24" s="55"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="6"/>
     </row>
     <row r="25" ht="15.6" customHeight="1">
-      <c r="A25" s="50"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="42"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40"/>
       <c r="J25" s="6"/>
     </row>
     <row r="26" ht="15.6" customHeight="1">
       <c r="A26" s="54"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="31"/>
       <c r="D26" s="55"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="45"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="6"/>
     </row>
     <row r="27" ht="15.6" customHeight="1">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="42"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40"/>
       <c r="J27" s="6"/>
     </row>
     <row r="28" ht="15.6" customHeight="1">
       <c r="A28" s="54"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="32"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="55"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="45"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="6"/>
     </row>
     <row r="29" ht="15.6" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="42"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
       <c r="J29" s="6"/>
     </row>
     <row r="30" ht="15.6" customHeight="1">
       <c r="A30" s="54"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="32"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="55"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="45"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="6"/>
     </row>
     <row r="31" ht="15.6" customHeight="1">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="52"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
       <c r="J31" s="6"/>
     </row>
     <row r="32" ht="15.6" customHeight="1">
       <c r="A32" s="54"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="32"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="55"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="46"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="6"/>
     </row>
     <row r="33" ht="15.6" customHeight="1">
-      <c r="A33" s="50"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="52"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="40"/>
       <c r="J33" s="6"/>
     </row>
     <row r="34" ht="15.6" customHeight="1">
-      <c r="A34" s="62"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="67"/>
-      <c r="G34" s="67"/>
-      <c r="H34" s="67"/>
-      <c r="I34" s="68"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="69"/>
       <c r="J34" s="6"/>
     </row>
     <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="B35" s="69"/>
-      <c r="C35" s="70"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="74"/>
+      <c r="A35" s="70"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="74"/>
+      <c r="G35" s="74"/>
+      <c r="H35" s="74"/>
+      <c r="I35" s="74"/>
+      <c r="J35" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="5">
